--- a/stud/ChristinaPildner/DA-Unterlagen/Uebersetzung.xlsx
+++ b/stud/ChristinaPildner/DA-Unterlagen/Uebersetzung.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
   <si>
     <t>Bedeutung</t>
   </si>
@@ -413,6 +413,12 @@
   </si>
   <si>
     <t>Hebelkraft</t>
+  </si>
+  <si>
+    <t>sanitation</t>
+  </si>
+  <si>
+    <t>Sanierung</t>
   </si>
 </sst>
 </file>
@@ -500,123 +506,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF95B3D7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD99795"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC2D69A"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF95B3D7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD99795"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC2D69A"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF95B3D7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD99795"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC2D69A"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF95B3D7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD99795"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC2D69A"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC2D69A"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC2D69A"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -677,39 +567,39 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Männlich" displayName="Männlich" ref="C1:D1048576" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Männlich" displayName="Männlich" ref="C1:D1048576" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="C1:D1048576">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="Männlich" dataDxfId="27"/>
-    <tableColumn id="2" name="Flexion" dataDxfId="26"/>
+    <tableColumn id="1" name="Männlich" dataDxfId="9"/>
+    <tableColumn id="2" name="Flexion" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Neutral" displayName="Neutral" ref="E1:F1048576" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Neutral" displayName="Neutral" ref="E1:F1048576" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="E1:F1048576">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="Neutral" dataDxfId="23"/>
-    <tableColumn id="2" name="Flexion" dataDxfId="22"/>
+    <tableColumn id="1" name="Neutral" dataDxfId="5"/>
+    <tableColumn id="2" name="Flexion" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Weiblich" displayName="Weiblich" ref="A1:B1048576" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Weiblich" displayName="Weiblich" ref="A1:B1048576" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B1048576">
     <filterColumn colId="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="Weiblich" dataDxfId="19"/>
-    <tableColumn id="2" name="Flexion" dataDxfId="18"/>
+    <tableColumn id="1" name="Weiblich" dataDxfId="1"/>
+    <tableColumn id="2" name="Flexion" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1013,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1397,6 +1287,14 @@
       </c>
       <c r="B45" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/stud/ChristinaPildner/DA-Unterlagen/Uebersetzung.xlsx
+++ b/stud/ChristinaPildner/DA-Unterlagen/Uebersetzung.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="122">
   <si>
     <t>Bedeutung</t>
   </si>
@@ -419,6 +419,54 @@
   </si>
   <si>
     <t>Sanierung</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>gesund</t>
+  </si>
+  <si>
+    <t>einwandfrei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lurk, to </t>
+  </si>
+  <si>
+    <t>lauern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">herumschleichen </t>
+  </si>
+  <si>
+    <t>Kraft</t>
+  </si>
+  <si>
+    <t>-/e(Umlaut)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leverage sth, to </t>
+  </si>
+  <si>
+    <t>einsetzen wirksam, etw.</t>
+  </si>
+  <si>
+    <t>weave, to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weben </t>
+  </si>
+  <si>
+    <t>weave smth into smth.</t>
+  </si>
+  <si>
+    <t>einbinden, etw in etw</t>
+  </si>
+  <si>
+    <t>statement</t>
+  </si>
+  <si>
+    <t>Äußerung</t>
   </si>
 </sst>
 </file>
@@ -554,8 +602,8 @@
     <filterColumn colId="0"/>
     <filterColumn colId="2"/>
   </autoFilter>
-  <sortState ref="A2:C41">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:C50">
+    <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="2" name="Englisch"/>
@@ -903,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1107,201 +1155,265 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
+        <v>39</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>29</v>
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>92</v>
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="7" t="s">
-        <v>57</v>
+      <c r="A38" t="s">
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" t="s">
-        <v>90</v>
+        <v>104</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" t="s">
-        <v>63</v>
+        <v>3</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" t="s">
-        <v>64</v>
+        <v>3</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" t="s">
-        <v>103</v>
+        <v>91</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1311,13 +1423,13 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="8" customWidth="1"/>
@@ -1365,6 +1477,12 @@
       </c>
     </row>
     <row r="3" spans="1:6">
+      <c r="A3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="C3" s="8" t="s">
         <v>78</v>
       </c>

--- a/stud/ChristinaPildner/DA-Unterlagen/Uebersetzung.xlsx
+++ b/stud/ChristinaPildner/DA-Unterlagen/Uebersetzung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Übersetzung" sheetId="2" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="147">
   <si>
     <t>Bedeutung</t>
   </si>
@@ -448,9 +448,6 @@
     <t xml:space="preserve">leverage sth, to </t>
   </si>
   <si>
-    <t>einsetzen wirksam, etw.</t>
-  </si>
-  <si>
     <t>weave, to</t>
   </si>
   <si>
@@ -467,6 +464,84 @@
   </si>
   <si>
     <t>Äußerung</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>Senke</t>
+  </si>
+  <si>
+    <t>amenable</t>
+  </si>
+  <si>
+    <t>zugänglich</t>
+  </si>
+  <si>
+    <t>lapsed</t>
+  </si>
+  <si>
+    <t>erloschen</t>
+  </si>
+  <si>
+    <t>abgelaufen</t>
+  </si>
+  <si>
+    <t>vantage</t>
+  </si>
+  <si>
+    <t>Vorteil</t>
+  </si>
+  <si>
+    <t>envision sth.</t>
+  </si>
+  <si>
+    <t>vergegenwertigen, sich etw.</t>
+  </si>
+  <si>
+    <t>einsetzen, wirksam etw.</t>
+  </si>
+  <si>
+    <t>glean</t>
+  </si>
+  <si>
+    <t>daunting</t>
+  </si>
+  <si>
+    <t>abschrekend</t>
+  </si>
+  <si>
+    <t>fördern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prime </t>
+  </si>
+  <si>
+    <t>infer</t>
+  </si>
+  <si>
+    <t>ableiten</t>
+  </si>
+  <si>
+    <t>Beispiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some work has been done in automatikally inferring state models on components of software systems </t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Werkzeug</t>
+  </si>
+  <si>
+    <t>Modell</t>
+  </si>
+  <si>
+    <t>s/e</t>
+  </si>
+  <si>
+    <t>Kapitel</t>
   </si>
 </sst>
 </file>
@@ -539,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -550,11 +625,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -591,23 +669,35 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C1048576" totalsRowShown="0">
-  <autoFilter ref="A1:C1048576">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D1048576" totalsRowShown="0">
+  <autoFilter ref="A1:D1048576">
     <filterColumn colId="0"/>
     <filterColumn colId="2"/>
+    <filterColumn colId="3"/>
   </autoFilter>
   <sortState ref="A2:C50">
     <sortCondition ref="A2"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="2" name="Englisch"/>
     <tableColumn id="1" name="Deutsch"/>
+    <tableColumn id="4" name="Beispiel" dataDxfId="12"/>
     <tableColumn id="3" name="Bedeutung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -951,54 +1041,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1006,7 +1100,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1014,7 +1108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1022,7 +1116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1030,18 +1124,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -1049,7 +1143,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1057,7 +1151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1065,7 +1159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1073,7 +1167,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1081,7 +1175,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1089,7 +1183,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1097,7 +1191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1361,7 +1455,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -1369,7 +1463,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -1377,36 +1471,119 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>114</v>
       </c>
       <c r="B51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
         <v>116</v>
       </c>
-      <c r="B52" t="s">
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
         <v>118</v>
       </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="B54" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="1" t="s">
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
         <v>121</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="45">
+      <c r="A64" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1420,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1503,6 +1680,12 @@
       <c r="D4" s="8" t="s">
         <v>79</v>
       </c>
+      <c r="E4" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="C5" s="8" t="s">
@@ -1511,6 +1694,12 @@
       <c r="D5" s="8" t="s">
         <v>79</v>
       </c>
+      <c r="E5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="C6" s="8" t="s">
@@ -1519,6 +1708,12 @@
       <c r="D6" s="8" t="s">
         <v>79</v>
       </c>
+      <c r="E6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="C7" s="8" t="s">
@@ -1527,6 +1722,9 @@
       <c r="D7" s="8" t="s">
         <v>94</v>
       </c>
+      <c r="E7" s="8" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="C8" s="8" t="s">
@@ -1542,6 +1740,14 @@
       </c>
       <c r="D9" s="8" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/stud/ChristinaPildner/DA-Unterlagen/Uebersetzung.xlsx
+++ b/stud/ChristinaPildner/DA-Unterlagen/Uebersetzung.xlsx
@@ -31,7 +31,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Autor:</t>
         </r>
         <r>
           <rPr>
@@ -42,7 +42,7 @@
           </rPr>
           <t xml:space="preserve">
 Flexion: Endung in
-Genitif Sg./ Nominativ Pl.</t>
+Genitiv Sg./ Nominativ Pl.</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Autor:</t>
         </r>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
           </rPr>
           <t xml:space="preserve">
 Flexion: Endung in
-Genitif Sg./ Nominativ Pl.</t>
+Genitiv Sg./ Nominativ Pl.</t>
         </r>
       </text>
     </comment>
@@ -81,7 +81,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Autor:</t>
         </r>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="157">
   <si>
     <t>Bedeutung</t>
   </si>
@@ -526,9 +526,6 @@
     <t>Beispiel</t>
   </si>
   <si>
-    <t xml:space="preserve">Some work has been done in automatikally inferring state models on components of software systems </t>
-  </si>
-  <si>
     <t>Tool</t>
   </si>
   <si>
@@ -541,7 +538,40 @@
     <t>s/e</t>
   </si>
   <si>
-    <t>Kapitel</t>
+    <t>Konzept</t>
+  </si>
+  <si>
+    <t>Plug-in</t>
+  </si>
+  <si>
+    <t>Diplomand</t>
+  </si>
+  <si>
+    <t>en/en</t>
+  </si>
+  <si>
+    <t>automatikally inferring state models</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>Charakteristika</t>
+  </si>
+  <si>
+    <t>Objekt</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>(e)s/en</t>
+  </si>
+  <si>
+    <t>Verständnis</t>
   </si>
 </sst>
 </file>
@@ -709,6 +739,9 @@
   <autoFilter ref="C1:D1048576">
     <filterColumn colId="1"/>
   </autoFilter>
+  <sortState ref="C2:D11">
+    <sortCondition ref="C1"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" name="Männlich" dataDxfId="9"/>
     <tableColumn id="2" name="Flexion" dataDxfId="8"/>
@@ -722,6 +755,9 @@
   <autoFilter ref="E1:F1048576">
     <filterColumn colId="1"/>
   </autoFilter>
+  <sortState ref="E2:F11">
+    <sortCondition ref="E1"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" name="Neutral" dataDxfId="5"/>
     <tableColumn id="2" name="Flexion" dataDxfId="4"/>
@@ -1041,17 +1077,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1575,7 +1611,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="45">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>138</v>
       </c>
@@ -1583,7 +1619,23 @@
         <v>139</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>141</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1597,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1641,13 +1693,13 @@
         <v>70</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>73</v>
@@ -1661,13 +1713,13 @@
         <v>113</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>73</v>
@@ -1675,16 +1727,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="8" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1695,7 +1747,7 @@
         <v>79</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>73</v>
@@ -1703,43 +1755,58 @@
     </row>
     <row r="6" spans="1:6">
       <c r="C6" s="8" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="C7" s="8" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>146</v>
       </c>
+      <c r="F7" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="C8" s="8" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="C9" s="8" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>94</v>
+        <v>79</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1748,6 +1815,28 @@
       </c>
       <c r="D10" s="8" t="s">
         <v>73</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
